--- a/src/main/java/ConfigData/ConfigData_UBNT_M2.xlsx
+++ b/src/main/java/ConfigData/ConfigData_UBNT_M2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="testData" sheetId="1" r:id="rId1"/>
+    <sheet name="ConfigData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -547,7 +547,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>

--- a/src/main/java/ConfigData/ConfigData_UBNT_M2.xlsx
+++ b/src/main/java/ConfigData/ConfigData_UBNT_M2.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UBNT_configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +163,10 @@
   </si>
   <si>
     <t>xmdt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBNT_configuration_M2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,12 +547,12 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
@@ -578,7 +578,7 @@
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.95" customHeight="1"/>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="15.95" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -602,48 +602,48 @@
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
+      <c r="A3" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -658,52 +658,52 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="U3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
